--- a/Adjectives.xlsx
+++ b/Adjectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Neal/Documents/GitHub/3990_UGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DBF4F2-8729-4A4C-85A9-0297E6BF3471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4717C7-0390-BB44-933F-59998809A57C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="6020" windowWidth="19880" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,13 +435,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -663,840 +660,723 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13">
+    <row r="63" spans="1:2" ht="13">
       <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13">
+    <row r="64" spans="1:2" ht="13">
       <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13">
+    <row r="65" spans="1:2" ht="13">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" ht="13">
+    </row>
+    <row r="66" spans="1:2" ht="13">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="13">
+    </row>
+    <row r="67" spans="1:2" ht="13">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="13">
+    </row>
+    <row r="68" spans="1:2" ht="13">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="13">
+    </row>
+    <row r="69" spans="1:2" ht="13">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="13">
+    </row>
+    <row r="70" spans="1:2" ht="13">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="13">
+    </row>
+    <row r="71" spans="1:2" ht="13">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="13">
+    </row>
+    <row r="72" spans="1:2" ht="13">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" ht="13">
+    </row>
+    <row r="73" spans="1:2" ht="13">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="13">
+    </row>
+    <row r="74" spans="1:2" ht="13">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="13">
+    </row>
+    <row r="75" spans="1:2" ht="13">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="13">
+    </row>
+    <row r="76" spans="1:2" ht="13">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" ht="13">
+    </row>
+    <row r="77" spans="1:2" ht="13">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="13">
+    </row>
+    <row r="78" spans="1:2" ht="13">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="13">
+    </row>
+    <row r="79" spans="1:2" ht="13">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="13">
+    </row>
+    <row r="80" spans="1:2" ht="13">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" ht="13">
+    </row>
+    <row r="81" spans="1:2" ht="13">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="13">
+    </row>
+    <row r="82" spans="1:2" ht="13">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="13">
+    </row>
+    <row r="83" spans="1:2" ht="13">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="13">
+    </row>
+    <row r="84" spans="1:2" ht="13">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="13">
+    </row>
+    <row r="85" spans="1:2" ht="13">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" ht="13">
+    </row>
+    <row r="86" spans="1:2" ht="13">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="13">
+    </row>
+    <row r="87" spans="1:2" ht="13">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="13">
+    </row>
+    <row r="88" spans="1:2" ht="13">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="13">
+    </row>
+    <row r="89" spans="1:2" ht="13">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" ht="13">
+    </row>
+    <row r="90" spans="1:2" ht="13">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="13">
+    </row>
+    <row r="91" spans="1:2" ht="13">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" ht="13">
+    </row>
+    <row r="92" spans="1:2" ht="13">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="13">
+    </row>
+    <row r="93" spans="1:2" ht="13">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="13">
+    </row>
+    <row r="94" spans="1:2" ht="13">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="13">
+    </row>
+    <row r="95" spans="1:2" ht="13">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="13">
+    </row>
+    <row r="96" spans="1:2" ht="13">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" ht="13">
+    </row>
+    <row r="97" spans="1:2" ht="13">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3" ht="13">
+    </row>
+    <row r="98" spans="1:2" ht="13">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" ht="13">
+    </row>
+    <row r="99" spans="1:2" ht="13">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" ht="13">
+    </row>
+    <row r="100" spans="1:2" ht="13">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="13">
+    </row>
+    <row r="101" spans="1:2" ht="13">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" ht="13">
+    </row>
+    <row r="102" spans="1:2" ht="13">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" ht="13">
+    </row>
+    <row r="103" spans="1:2" ht="13">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" ht="13">
+    </row>
+    <row r="104" spans="1:2" ht="13">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" ht="13">
+    </row>
+    <row r="105" spans="1:2" ht="13">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" ht="13">
+    </row>
+    <row r="106" spans="1:2" ht="13">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" ht="13">
+    </row>
+    <row r="107" spans="1:2" ht="13">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" ht="13">
+    </row>
+    <row r="108" spans="1:2" ht="13">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" ht="13">
+    </row>
+    <row r="109" spans="1:2" ht="13">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="1:3" ht="13">
+    </row>
+    <row r="110" spans="1:2" ht="13">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="13">
+    </row>
+    <row r="111" spans="1:2" ht="13">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" ht="13">
+    </row>
+    <row r="112" spans="1:2" ht="13">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" ht="13">
+    </row>
+    <row r="113" spans="1:2" ht="13">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" ht="13">
+    </row>
+    <row r="114" spans="1:2" ht="13">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" ht="13">
+    </row>
+    <row r="115" spans="1:2" ht="13">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" ht="13">
+    </row>
+    <row r="116" spans="1:2" ht="13">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" ht="13">
+    </row>
+    <row r="117" spans="1:2" ht="13">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" ht="13">
+    </row>
+    <row r="118" spans="1:2" ht="13">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Adjectives.xlsx
+++ b/Adjectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Neal/Documents/GitHub/3990_UGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4717C7-0390-BB44-933F-59998809A57C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1898D5-97A8-CF42-900B-8D06539DB822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="6020" windowWidth="19880" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -386,16 +386,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;DejaVu Sans&quot;"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -435,13 +441,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,720 +671,724 @@
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="14.5" style="5"/>
+    <col min="3" max="16384" width="14.5" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="13">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="13">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="13">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="13">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="13">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="13">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="13">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="13">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="13">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="13">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="13">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="13">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="13">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="13">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="13">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="13">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="13">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="13">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="13">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="13">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="13">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="13">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="13">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="13">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="13">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="13">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="13">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="13">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="13">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="13">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="13">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="13">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="13">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" ht="13">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" ht="13">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" ht="13">
-      <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" ht="13">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" ht="13">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" ht="13">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" ht="13">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" ht="13">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2" ht="13">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2" ht="13">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" ht="13">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2" ht="13">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" ht="13">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" ht="13">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" ht="13">
-      <c r="A111" s="2"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" ht="13">
-      <c r="A112" s="2"/>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" ht="13">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" ht="13">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" ht="13">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" ht="13">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" ht="13">
-      <c r="A117" s="2"/>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" ht="13">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3"/>
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Adjectives.xlsx
+++ b/Adjectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Neal/Documents/GitHub/3990_UGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1898D5-97A8-CF42-900B-8D06539DB822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A03B68-94D0-154C-B8A4-66EC63CF0D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="6020" windowWidth="19880" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,11 +437,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -450,6 +465,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +688,7 @@
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -688,489 +705,489 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="1:2" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="1:2" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:2" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
         <v>114</v>
       </c>
     </row>
